--- a/BBC/BBCExcelData/BBCRegister.xlsx
+++ b/BBC/BBCExcelData/BBCRegister.xlsx
@@ -38,7 +38,7 @@
     <t>1987</t>
   </si>
   <si>
-    <t>yinyan51@gmail.com</t>
+    <t>yinyan50@gmail.com</t>
   </si>
   <si>
     <t>ABcDe123</t>

--- a/BBC/BBCExcelData/BBCRegister.xlsx
+++ b/BBC/BBCExcelData/BBCRegister.xlsx
@@ -38,7 +38,7 @@
     <t>1987</t>
   </si>
   <si>
-    <t>yinyan50@gmail.com</t>
+    <t>yinyan83@gmail.com</t>
   </si>
   <si>
     <t>ABcDe123</t>

--- a/BBC/BBCExcelData/BBCRegister.xlsx
+++ b/BBC/BBCExcelData/BBCRegister.xlsx
@@ -12,54 +12,33 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="9">
   <si>
-    <t>BirthDay</t>
+    <t>birthDay</t>
   </si>
   <si>
-    <t>BirthMonth</t>
+    <t>birthMonth</t>
   </si>
   <si>
-    <t>BirthYear</t>
+    <t>birthYear</t>
   </si>
   <si>
-    <t>Email</t>
+    <t>email</t>
   </si>
   <si>
-    <t>Password</t>
+    <t>password</t>
   </si>
   <si>
-    <t>24</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>1987</t>
-  </si>
-  <si>
-    <t>yinyan83@gmail.com</t>
+    <t>yinyanxe103@gmail.com</t>
   </si>
   <si>
     <t>ABcDe123</t>
   </si>
   <si>
-    <t>7</t>
+    <t>akash103@gmail.com</t>
   </si>
   <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>1989</t>
-  </si>
-  <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>1980</t>
+    <t>akashbatash103@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -128,54 +107,54 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s">
+      <c r="A2" t="n">
+        <v>24.0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1987.0</v>
+      </c>
+      <c r="D2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" t="s">
+      <c r="E2" t="s">
         <v>6</v>
-      </c>
-      <c r="C2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s">
-        <v>10</v>
+      <c r="A3" t="n">
+        <v>7.0</v>
       </c>
-      <c r="B3" t="s">
-        <v>11</v>
+      <c r="B3" t="n">
+        <v>9.0</v>
       </c>
-      <c r="C3" t="s">
-        <v>12</v>
+      <c r="C3" t="n">
+        <v>1989.0</v>
       </c>
       <c r="D3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E3" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="s">
-        <v>13</v>
+      <c r="A4" t="n">
+        <v>13.0</v>
       </c>
-      <c r="B4" t="s">
-        <v>14</v>
+      <c r="B4" t="n">
+        <v>6.0</v>
       </c>
-      <c r="C4" t="s">
-        <v>15</v>
+      <c r="C4" t="n">
+        <v>1980.0</v>
       </c>
       <c r="D4" t="s">
         <v>8</v>
       </c>
       <c r="E4" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/BBC/BBCExcelData/BBCRegister.xlsx
+++ b/BBC/BBCExcelData/BBCRegister.xlsx
@@ -29,16 +29,16 @@
     <t>password</t>
   </si>
   <si>
-    <t>yinyanxe103@gmail.com</t>
+    <t>yinyanxe119@gmail.com</t>
   </si>
   <si>
     <t>ABcDe123</t>
   </si>
   <si>
-    <t>akash103@gmail.com</t>
+    <t>akash119@gmail.com</t>
   </si>
   <si>
-    <t>akashbatash103@gmail.com</t>
+    <t>akashbatash119@gmail.com</t>
   </si>
 </sst>
 </file>

--- a/BBC/BBCExcelData/BBCRegister.xlsx
+++ b/BBC/BBCExcelData/BBCRegister.xlsx
@@ -29,16 +29,16 @@
     <t>password</t>
   </si>
   <si>
-    <t>yinyanxe119@gmail.com</t>
+    <t>yinyanxe306@gmail.com</t>
   </si>
   <si>
     <t>ABcDe123</t>
   </si>
   <si>
-    <t>akash119@gmail.com</t>
+    <t>akash306@gmail.com</t>
   </si>
   <si>
-    <t>akashbatash119@gmail.com</t>
+    <t>akashbatash306@gmail.com</t>
   </si>
 </sst>
 </file>
